--- a/mcw_readers/data/ped_lut.xlsx
+++ b/mcw_readers/data/ped_lut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_f39\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8B018FD-7EB3-4F4C-A796-3245E24BD9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A8CDCBE-C3F1-4C6F-B99C-3DCAEE41A440}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4181,40 +4181,40 @@
     <t>Child Behavior Checklist (Ages 1.5-5) | Aggressive Behavior | Oppositional Defiant Problems</t>
   </si>
   <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5)</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Emotionally Reactive</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Anxious/Depressed</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Somatic Complaints</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Withdrawn</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Attention Problems</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Aggressive Behavior</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Aggressive Behavior | Depressive Problems</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Aggressive Behavior | Anxiety Problems</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Aggressive Behavior | Autism Spectrum Problems</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Aggressive Behavior | Attention Deficit/Hyperactivity Problems</t>
-  </si>
-  <si>
-    <t>Caregiver-Teacher Report Form (Ages 1.5-5) | Aggressive Behavior | Oppositional Defiant Problems</t>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5)</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Emotionally Reactive</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Anxious/Depressed</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Somatic Complaints</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Withdrawn</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Attention Problems</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Aggressive Behavior</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Aggressive Behavior | Depressive Problems</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Aggressive Behavior | Anxiety Problems</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Aggressive Behavior | Autism Spectrum Problems</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Aggressive Behavior | Attention Deficit/Hyperactivity Problems</t>
+  </si>
+  <si>
+    <t>Caregiver-Teacher Report Form  (Ages 1.5-5) | Aggressive Behavior | Oppositional Defiant Problems</t>
   </si>
   <si>
     <t>*clinically significant scores are bolded</t>
@@ -4996,8 +4996,8 @@
   <dimension ref="A1:I1420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A1203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1212" sqref="B1212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
